--- a/Model/BayesLSTM/Univariate/result/Service/CAN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>64.13227844238281</v>
+        <v>63.3791618347168</v>
       </c>
       <c r="C2" t="n">
-        <v>62.81484603881836</v>
+        <v>61.88694763183594</v>
       </c>
       <c r="D2" t="n">
-        <v>65.44970703125</v>
+        <v>64.87137603759766</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>64.58666229248047</v>
+        <v>64.0736083984375</v>
       </c>
       <c r="C3" t="n">
-        <v>63.57302474975586</v>
+        <v>61.7318115234375</v>
       </c>
       <c r="D3" t="n">
-        <v>65.60029602050781</v>
+        <v>66.4154052734375</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>64.61624908447266</v>
+        <v>63.96382904052734</v>
       </c>
       <c r="C4" t="n">
-        <v>63.66288757324219</v>
+        <v>62.22121810913086</v>
       </c>
       <c r="D4" t="n">
-        <v>65.56961059570312</v>
+        <v>65.70643615722656</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>64.43504333496094</v>
+        <v>63.35199737548828</v>
       </c>
       <c r="C5" t="n">
-        <v>63.57501983642578</v>
+        <v>61.86005401611328</v>
       </c>
       <c r="D5" t="n">
-        <v>65.29506683349609</v>
+        <v>64.84394073486328</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>64.62113952636719</v>
+        <v>63.96523284912109</v>
       </c>
       <c r="C6" t="n">
-        <v>63.48678588867188</v>
+        <v>62.17513275146484</v>
       </c>
       <c r="D6" t="n">
-        <v>65.7554931640625</v>
+        <v>65.75533294677734</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>64.56184387207031</v>
+        <v>63.97574996948242</v>
       </c>
       <c r="C7" t="n">
-        <v>63.59727096557617</v>
+        <v>62.18890380859375</v>
       </c>
       <c r="D7" t="n">
-        <v>65.52641296386719</v>
+        <v>65.76259613037109</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>64.65442657470703</v>
+        <v>63.6234130859375</v>
       </c>
       <c r="C8" t="n">
-        <v>63.41647720336914</v>
+        <v>61.78377532958984</v>
       </c>
       <c r="D8" t="n">
-        <v>65.89237976074219</v>
+        <v>65.46305084228516</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>64.58492279052734</v>
+        <v>63.38481521606445</v>
       </c>
       <c r="C9" t="n">
-        <v>63.46112060546875</v>
+        <v>62.03825759887695</v>
       </c>
       <c r="D9" t="n">
-        <v>65.70872497558594</v>
+        <v>64.73137664794922</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>64.45863342285156</v>
+        <v>63.71554565429688</v>
       </c>
       <c r="C10" t="n">
-        <v>63.41457748413086</v>
+        <v>62.51714706420898</v>
       </c>
       <c r="D10" t="n">
-        <v>65.50269317626953</v>
+        <v>64.9139404296875</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>64.59587860107422</v>
+        <v>63.30656814575195</v>
       </c>
       <c r="C11" t="n">
-        <v>63.59483337402344</v>
+        <v>62.36332321166992</v>
       </c>
       <c r="D11" t="n">
-        <v>65.596923828125</v>
+        <v>64.24981689453125</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>64.69586181640625</v>
+        <v>63.6776237487793</v>
       </c>
       <c r="C12" t="n">
-        <v>63.56674957275391</v>
+        <v>62.51881408691406</v>
       </c>
       <c r="D12" t="n">
-        <v>65.82497406005859</v>
+        <v>64.83643341064453</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>64.33197021484375</v>
+        <v>63.73444366455078</v>
       </c>
       <c r="C13" t="n">
-        <v>62.88660049438477</v>
+        <v>62.13431930541992</v>
       </c>
       <c r="D13" t="n">
-        <v>65.77733612060547</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>64.52946472167969</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63.41582489013672</v>
-      </c>
-      <c r="D14" t="n">
-        <v>65.64310455322266</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.64303588867188</v>
-      </c>
-      <c r="C15" t="n">
-        <v>63.69386672973633</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65.59220123291016</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>64.28202819824219</v>
-      </c>
-      <c r="C16" t="n">
-        <v>63.08110427856445</v>
-      </c>
-      <c r="D16" t="n">
-        <v>65.48294830322266</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>64.46968078613281</v>
-      </c>
-      <c r="C17" t="n">
-        <v>63.04724884033203</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.89211273193359</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>64.45381927490234</v>
-      </c>
-      <c r="C18" t="n">
-        <v>63.11776351928711</v>
-      </c>
-      <c r="D18" t="n">
-        <v>65.78987121582031</v>
+        <v>65.33457183837891</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>63.59714736938476</v>
+        <v>63.99385833740234</v>
       </c>
       <c r="C2" t="n">
-        <v>62.42816812537318</v>
+        <v>62.11663818359375</v>
       </c>
       <c r="D2" t="n">
-        <v>64.76612661339635</v>
+        <v>65.87107849121094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>64.01633224487304</v>
+        <v>63.85294342041016</v>
       </c>
       <c r="C3" t="n">
-        <v>62.46810911439683</v>
+        <v>62.28133773803711</v>
       </c>
       <c r="D3" t="n">
-        <v>65.56455537534924</v>
+        <v>65.42454528808594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>64.72417984008788</v>
+        <v>63.97785568237305</v>
       </c>
       <c r="C4" t="n">
-        <v>63.51067026665243</v>
+        <v>62.33016204833984</v>
       </c>
       <c r="D4" t="n">
-        <v>65.93768941352334</v>
+        <v>65.62554931640625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>63.4757022857666</v>
+        <v>63.96720504760742</v>
       </c>
       <c r="C5" t="n">
-        <v>62.42180025578362</v>
+        <v>62.234375</v>
       </c>
       <c r="D5" t="n">
-        <v>64.52960431574958</v>
+        <v>65.70003509521484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>63.94525566101074</v>
+        <v>64.07476806640625</v>
       </c>
       <c r="C6" t="n">
-        <v>63.03248980221883</v>
+        <v>62.54818725585938</v>
       </c>
       <c r="D6" t="n">
-        <v>64.85802151980266</v>
+        <v>65.60134887695312</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>65.05345153808594</v>
+        <v>63.6933708190918</v>
       </c>
       <c r="C2" t="n">
-        <v>63.21367645263672</v>
+        <v>62.66339111328125</v>
       </c>
       <c r="D2" t="n">
-        <v>66.89322662353516</v>
+        <v>64.72335052490234</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>65.05101776123047</v>
+        <v>64.1719970703125</v>
       </c>
       <c r="C3" t="n">
-        <v>63.08945465087891</v>
+        <v>62.93816375732422</v>
       </c>
       <c r="D3" t="n">
-        <v>67.01258087158203</v>
+        <v>65.40583038330078</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>64.95862579345703</v>
+        <v>63.59775924682617</v>
       </c>
       <c r="C4" t="n">
-        <v>63.62707901000977</v>
+        <v>62.24971008300781</v>
       </c>
       <c r="D4" t="n">
-        <v>66.29016876220703</v>
+        <v>64.94580841064453</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>64.98631286621094</v>
+        <v>63.94146728515625</v>
       </c>
       <c r="C5" t="n">
-        <v>63.64481353759766</v>
+        <v>62.51318740844727</v>
       </c>
       <c r="D5" t="n">
-        <v>66.32781219482422</v>
+        <v>65.36974334716797</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>64.60268402099609</v>
+        <v>63.87208938598633</v>
       </c>
       <c r="C6" t="n">
-        <v>62.93753814697266</v>
+        <v>62.67109680175781</v>
       </c>
       <c r="D6" t="n">
-        <v>66.26782989501953</v>
+        <v>65.07308197021484</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>64.962158203125</v>
+        <v>63.5691032409668</v>
       </c>
       <c r="C7" t="n">
-        <v>63.0395393371582</v>
+        <v>62.62117004394531</v>
       </c>
       <c r="D7" t="n">
-        <v>66.88478088378906</v>
+        <v>64.51703643798828</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08329772949219</v>
+        <v>63.95974731445312</v>
       </c>
       <c r="C8" t="n">
-        <v>63.29464340209961</v>
+        <v>62.46104049682617</v>
       </c>
       <c r="D8" t="n">
-        <v>66.87195587158203</v>
+        <v>65.45845031738281</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>64.92977905273438</v>
+        <v>63.74862670898438</v>
       </c>
       <c r="C9" t="n">
-        <v>63.16150283813477</v>
+        <v>61.94039154052734</v>
       </c>
       <c r="D9" t="n">
-        <v>66.69805145263672</v>
+        <v>65.55686187744141</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>64.65477752685547</v>
+        <v>63.88762283325195</v>
       </c>
       <c r="C10" t="n">
-        <v>63.29806137084961</v>
+        <v>62.54447174072266</v>
       </c>
       <c r="D10" t="n">
-        <v>66.01149749755859</v>
+        <v>65.23077392578125</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>64.65365600585938</v>
+        <v>64.12929534912109</v>
       </c>
       <c r="C11" t="n">
-        <v>62.77177429199219</v>
+        <v>62.42495727539062</v>
       </c>
       <c r="D11" t="n">
-        <v>66.53553771972656</v>
+        <v>65.83363342285156</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>64.82373809814453</v>
+        <v>63.8143310546875</v>
       </c>
       <c r="C12" t="n">
-        <v>63.04853439331055</v>
+        <v>62.13354873657227</v>
       </c>
       <c r="D12" t="n">
-        <v>66.59894561767578</v>
+        <v>65.4951171875</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>64.86796569824219</v>
+        <v>63.97890090942383</v>
       </c>
       <c r="C13" t="n">
-        <v>62.52979278564453</v>
+        <v>62.33408737182617</v>
       </c>
       <c r="D13" t="n">
-        <v>67.20613861083984</v>
+        <v>65.62371826171875</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>65.02137756347656</v>
+        <v>64.09995269775391</v>
       </c>
       <c r="C14" t="n">
-        <v>63.0792350769043</v>
+        <v>62.64250564575195</v>
       </c>
       <c r="D14" t="n">
-        <v>66.96351623535156</v>
+        <v>65.55739593505859</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>64.58917236328125</v>
+        <v>64.06779479980469</v>
       </c>
       <c r="C15" t="n">
-        <v>61.99312591552734</v>
+        <v>61.63260650634766</v>
       </c>
       <c r="D15" t="n">
-        <v>67.18521881103516</v>
+        <v>66.50298309326172</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>64.39566802978516</v>
+        <v>63.53754806518555</v>
       </c>
       <c r="C16" t="n">
-        <v>62.95943832397461</v>
+        <v>62.01842498779297</v>
       </c>
       <c r="D16" t="n">
-        <v>65.83189392089844</v>
+        <v>65.05667114257812</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>64.56142425537109</v>
+        <v>63.24811935424805</v>
       </c>
       <c r="C17" t="n">
-        <v>62.39227294921875</v>
+        <v>61.56282806396484</v>
       </c>
       <c r="D17" t="n">
-        <v>66.73057556152344</v>
+        <v>64.93341064453125</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>64.5289306640625</v>
+        <v>63.50064849853516</v>
       </c>
       <c r="C18" t="n">
-        <v>62.34339141845703</v>
+        <v>62.00275421142578</v>
       </c>
       <c r="D18" t="n">
-        <v>66.71446990966797</v>
+        <v>64.99854278564453</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>64.09458770751954</v>
+        <v>65.11411132812501</v>
       </c>
       <c r="C2" t="n">
-        <v>63.35417865968192</v>
+        <v>63.69171699154817</v>
       </c>
       <c r="D2" t="n">
-        <v>64.83499675535715</v>
+        <v>66.53650566470183</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>64.31979904174804</v>
+        <v>64.68725852966308</v>
       </c>
       <c r="C3" t="n">
-        <v>63.03038155392951</v>
+        <v>63.43675244422025</v>
       </c>
       <c r="D3" t="n">
-        <v>65.60921652956658</v>
+        <v>65.93776461510592</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>64.86338348388672</v>
+        <v>64.47620887756348</v>
       </c>
       <c r="C4" t="n">
-        <v>63.73558105808515</v>
+        <v>62.49340237895696</v>
       </c>
       <c r="D4" t="n">
-        <v>65.99118590968828</v>
+        <v>66.45901537617</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>64.91308517456055</v>
+        <v>64.940474319458</v>
       </c>
       <c r="C5" t="n">
-        <v>63.87246410807963</v>
+        <v>63.16855151172839</v>
       </c>
       <c r="D5" t="n">
-        <v>65.95370624104146</v>
+        <v>66.71239712718763</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>64.84187164306641</v>
+        <v>63.56077346801758</v>
       </c>
       <c r="C6" t="n">
-        <v>63.36915032017982</v>
+        <v>62.50572681867859</v>
       </c>
       <c r="D6" t="n">
-        <v>66.314592965953</v>
+        <v>64.61582011735656</v>
       </c>
     </row>
   </sheetData>
